--- a/Data_visualisation/scripts/CWRU_Comparison_Data.xlsx
+++ b/Data_visualisation/scripts/CWRU_Comparison_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishanipatil/Documents/GitHub/data_analysis/csds413-term-project/Data_visualisation/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B37366BE-F6B7-F94F-92D5-DC7DE8F3C545}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E96647-DFB5-DD4A-A8BC-B8322D166BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{EF74583D-E755-5546-97D7-24416099F389}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{EF74583D-E755-5546-97D7-24416099F389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
   <si>
     <t>School_Name</t>
   </si>
@@ -169,6 +169,12 @@
   </si>
   <si>
     <t>Accepted</t>
+  </si>
+  <si>
+    <t>Northeastern University</t>
+  </si>
+  <si>
+    <t>Emory University</t>
   </si>
 </sst>
 </file>
@@ -724,10 +730,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE394C-F586-4D47-A834-BEE67E34114D}">
-  <dimension ref="A1:N14"/>
+  <dimension ref="A1:N17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1364,8 +1370,141 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="1">
+        <v>13</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3334</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F15" s="1">
+        <v>88741</v>
+      </c>
+      <c r="G15" s="1">
+        <v>37967</v>
+      </c>
+      <c r="H15" s="1">
+        <v>97</v>
+      </c>
+      <c r="I15" s="1">
+        <v>90</v>
+      </c>
+      <c r="J15" s="1">
+        <v>90</v>
+      </c>
+      <c r="K15" s="1">
+        <v>95</v>
+      </c>
+      <c r="L15" s="1">
+        <v>20</v>
+      </c>
+      <c r="M15" s="1">
+        <v>18098</v>
+      </c>
+      <c r="N15" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="1">
+        <v>11</v>
+      </c>
+      <c r="D16" s="1">
+        <v>3543</v>
+      </c>
+      <c r="E16" s="1">
+        <v>1520</v>
+      </c>
+      <c r="F16" s="1">
+        <v>83622</v>
+      </c>
+      <c r="G16" s="1">
+        <v>27986</v>
+      </c>
+      <c r="H16" s="1">
+        <v>96</v>
+      </c>
+      <c r="I16" s="1">
+        <v>83</v>
+      </c>
+      <c r="J16" s="1">
+        <v>90</v>
+      </c>
+      <c r="K16" s="1">
+        <v>90</v>
+      </c>
+      <c r="L16" s="1">
+        <v>33</v>
+      </c>
+      <c r="M16" s="1">
+        <v>49916</v>
+      </c>
+      <c r="N16" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C17" s="1">
+        <v>6</v>
+      </c>
+      <c r="D17" s="1">
+        <v>5459</v>
+      </c>
+      <c r="E17" s="1">
+        <v>1500</v>
+      </c>
+      <c r="F17" s="1">
+        <v>84731</v>
+      </c>
+      <c r="G17" s="1">
+        <v>34770</v>
+      </c>
+      <c r="H17" s="1">
+        <v>98</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>91</v>
+      </c>
+      <c r="K17" s="1">
+        <v>91</v>
+      </c>
+      <c r="L17" s="1">
+        <v>15</v>
+      </c>
+      <c r="M17" s="1">
+        <v>7970</v>
+      </c>
+      <c r="N17" s="1">
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/Data_visualisation/scripts/CWRU_Comparison_Data.xlsx
+++ b/Data_visualisation/scripts/CWRU_Comparison_Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/aishanipatil/Documents/GitHub/data_analysis/csds413-term-project/Data_visualisation/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40E96647-DFB5-DD4A-A8BC-B8322D166BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D06721-3395-CA49-A583-338142A48BE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" activeTab="1" xr2:uid="{EF74583D-E755-5546-97D7-24416099F389}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17700" xr2:uid="{EF74583D-E755-5546-97D7-24416099F389}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="47">
   <si>
     <t>School_Name</t>
   </si>
@@ -75,9 +75,6 @@
     <t>Grad_Rate_5yr</t>
   </si>
   <si>
-    <t>Cost_of_Living</t>
-  </si>
-  <si>
     <t>Case Western Reserve University</t>
   </si>
   <si>
@@ -175,6 +172,12 @@
   </si>
   <si>
     <t>Emory University</t>
+  </si>
+  <si>
+    <t>Cost_of_Attendance</t>
+  </si>
+  <si>
+    <t>Atlanta, Georgia</t>
   </si>
 </sst>
 </file>
@@ -555,10 +558,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E412D7AE-A0E1-4140-9C2A-E2027476886E}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -582,145 +585,167 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="C14" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -730,10 +755,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDCE394C-F586-4D47-A834-BEE67E34114D}">
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -743,7 +768,7 @@
     <col min="3" max="3" width="15.5" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.1640625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="13.1640625" style="1" bestFit="1" customWidth="1"/>
@@ -756,7 +781,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -765,13 +790,13 @@
         <v>7</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>6</v>
@@ -789,7 +814,7 @@
         <v>5</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M1" s="1" t="s">
         <v>8</v>
@@ -800,10 +825,10 @@
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1">
         <v>28</v>
@@ -844,10 +869,10 @@
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>17</v>
       </c>
       <c r="C3" s="1">
         <v>10</v>
@@ -888,10 +913,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1">
         <v>6</v>
@@ -932,10 +957,10 @@
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C5" s="1">
         <v>13</v>
@@ -976,10 +1001,10 @@
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="1">
         <v>12</v>
@@ -1020,10 +1045,10 @@
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1">
         <v>36</v>
@@ -1064,10 +1089,10 @@
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C8" s="1">
         <v>10</v>
@@ -1108,10 +1133,10 @@
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C9" s="1">
         <v>56</v>
@@ -1152,10 +1177,10 @@
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C10" s="1">
         <v>7</v>
@@ -1196,10 +1221,10 @@
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1">
         <v>7</v>
@@ -1240,10 +1265,10 @@
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" s="1">
         <v>42</v>
@@ -1284,10 +1309,10 @@
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" s="1">
         <v>11</v>
@@ -1328,10 +1353,10 @@
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C14" s="1">
         <v>83</v>
@@ -1372,133 +1397,89 @@
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C15" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D15" s="1">
-        <v>3334</v>
+        <v>3543</v>
       </c>
       <c r="E15" s="1">
-        <v>1500</v>
+        <v>1520</v>
       </c>
       <c r="F15" s="1">
-        <v>88741</v>
+        <v>83622</v>
       </c>
       <c r="G15" s="1">
-        <v>37967</v>
+        <v>27986</v>
       </c>
       <c r="H15" s="1">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="I15" s="1">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="J15" s="1">
         <v>90</v>
       </c>
       <c r="K15" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="L15" s="1">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="M15" s="1">
-        <v>18098</v>
+        <v>49916</v>
       </c>
       <c r="N15" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C16" s="1">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="D16" s="1">
-        <v>3543</v>
+        <v>5459</v>
       </c>
       <c r="E16" s="1">
-        <v>1520</v>
+        <v>1500</v>
       </c>
       <c r="F16" s="1">
-        <v>83622</v>
+        <v>84731</v>
       </c>
       <c r="G16" s="1">
-        <v>27986</v>
+        <v>34770</v>
       </c>
       <c r="H16" s="1">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="I16" s="1">
-        <v>83</v>
+        <v>0</v>
       </c>
       <c r="J16" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="K16" s="1">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="L16" s="1">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="M16" s="1">
-        <v>49916</v>
+        <v>7970</v>
       </c>
       <c r="N16" s="1">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C17" s="1">
-        <v>6</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5459</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1500</v>
-      </c>
-      <c r="F17" s="1">
-        <v>84731</v>
-      </c>
-      <c r="G17" s="1">
-        <v>34770</v>
-      </c>
-      <c r="H17" s="1">
-        <v>98</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>91</v>
-      </c>
-      <c r="K17" s="1">
-        <v>91</v>
-      </c>
-      <c r="L17" s="1">
-        <v>15</v>
-      </c>
-      <c r="M17" s="1">
-        <v>7970</v>
-      </c>
-      <c r="N17" s="1">
         <v>16</v>
       </c>
     </row>
